--- a/Comparación Búsquedas.xlsx
+++ b/Comparación Búsquedas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirz\OneDrive\Documentos\GitHub\Ciencias II - Búsquedas\Busquedas-Ciencias-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{20858AEF-4BA5-4BFF-A3DF-3F53DACB2117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1BF1D-9D50-4593-B1DF-25FCD7E099CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{AD386898-3F47-463D-97CA-E84C3E72068B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD386898-3F47-463D-97CA-E84C3E72068B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -205,10 +205,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$N$1</c:f>
+              <c:f>Hoja1!$B$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -247,16 +247,49 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$2:$N$2</c:f>
+              <c:f>Hoja1!$B$2:$Y$2</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>837700</c:v>
                 </c:pt>
@@ -295,6 +328,39 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>1676800</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1659200</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1548600</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2820000</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1577500</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2624400</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2655100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2965800</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>2198900</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2231900</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2100900</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2857400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -334,10 +400,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$N$1</c:f>
+              <c:f>Hoja1!$B$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -376,16 +442,49 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$N$3</c:f>
+              <c:f>Hoja1!$B$3:$Y$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>427900</c:v>
                 </c:pt>
@@ -424,6 +523,39 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>286400</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>661500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>329000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>381800</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>313700</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>425500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>423600</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>219700</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>357800</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>402800</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>300000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>344400</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -463,10 +595,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Hoja1!$B$1:$N$1</c:f>
+              <c:f>Hoja1!$B$1:$Y$1</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>1000</c:v>
                 </c:pt>
@@ -505,16 +637,49 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8500</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12000</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13000</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14000</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$B$4:$N$4</c:f>
+              <c:f>Hoja1!$B$4:$Y$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="24"/>
                 <c:pt idx="0">
                   <c:v>373400</c:v>
                 </c:pt>
@@ -553,6 +718,39 @@
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>254700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>256300</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>441700</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>229200</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>358900</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>245100</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>354100</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>250000</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>413600</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>217300</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>374300</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>288900</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1653,19 +1851,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E510D0-674B-49B7-8F35-198991D4BECD}">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:Y4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="14" width="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="25" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -1708,8 +1906,41 @@
       <c r="N1">
         <v>7000</v>
       </c>
+      <c r="O1">
+        <v>7500</v>
+      </c>
+      <c r="P1">
+        <v>8000</v>
+      </c>
+      <c r="Q1">
+        <v>8500</v>
+      </c>
+      <c r="R1">
+        <v>9000</v>
+      </c>
+      <c r="S1">
+        <v>9500</v>
+      </c>
+      <c r="T1">
+        <v>10000</v>
+      </c>
+      <c r="U1">
+        <v>11000</v>
+      </c>
+      <c r="V1">
+        <v>12000</v>
+      </c>
+      <c r="W1">
+        <v>13000</v>
+      </c>
+      <c r="X1">
+        <v>14000</v>
+      </c>
+      <c r="Y1">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1752,8 +1983,41 @@
       <c r="N2">
         <v>1676800</v>
       </c>
+      <c r="O2">
+        <v>1659200</v>
+      </c>
+      <c r="P2">
+        <v>1548600</v>
+      </c>
+      <c r="Q2">
+        <v>2820000</v>
+      </c>
+      <c r="R2">
+        <v>1577500</v>
+      </c>
+      <c r="S2">
+        <v>2624400</v>
+      </c>
+      <c r="T2">
+        <v>2655100</v>
+      </c>
+      <c r="U2">
+        <v>2965800</v>
+      </c>
+      <c r="V2">
+        <v>2198900</v>
+      </c>
+      <c r="W2">
+        <v>2231900</v>
+      </c>
+      <c r="X2">
+        <v>2100900</v>
+      </c>
+      <c r="Y2">
+        <v>2857400</v>
+      </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1796,8 +2060,41 @@
       <c r="N3">
         <v>286400</v>
       </c>
+      <c r="O3">
+        <v>661500</v>
+      </c>
+      <c r="P3">
+        <v>329000</v>
+      </c>
+      <c r="Q3">
+        <v>381800</v>
+      </c>
+      <c r="R3">
+        <v>313700</v>
+      </c>
+      <c r="S3">
+        <v>425500</v>
+      </c>
+      <c r="T3">
+        <v>423600</v>
+      </c>
+      <c r="U3">
+        <v>219700</v>
+      </c>
+      <c r="V3">
+        <v>357800</v>
+      </c>
+      <c r="W3">
+        <v>402800</v>
+      </c>
+      <c r="X3">
+        <v>300000</v>
+      </c>
+      <c r="Y3">
+        <v>344400</v>
+      </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1839,6 +2136,39 @@
       </c>
       <c r="N4">
         <v>254700</v>
+      </c>
+      <c r="O4">
+        <v>256300</v>
+      </c>
+      <c r="P4">
+        <v>441700</v>
+      </c>
+      <c r="Q4">
+        <v>229200</v>
+      </c>
+      <c r="R4">
+        <v>358900</v>
+      </c>
+      <c r="S4">
+        <v>245100</v>
+      </c>
+      <c r="T4">
+        <v>354100</v>
+      </c>
+      <c r="U4">
+        <v>250000</v>
+      </c>
+      <c r="V4">
+        <v>413600</v>
+      </c>
+      <c r="W4">
+        <v>217300</v>
+      </c>
+      <c r="X4">
+        <v>374300</v>
+      </c>
+      <c r="Y4">
+        <v>288900</v>
       </c>
     </row>
   </sheetData>

--- a/Comparación Búsquedas.xlsx
+++ b/Comparación Búsquedas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amirz\OneDrive\Documentos\GitHub\Ciencias II - Búsquedas\Busquedas-Ciencias-II\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75E1BF1D-9D50-4593-B1DF-25FCD7E099CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F803CC-D60B-4774-92A3-4A3A490985A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{AD386898-3F47-463D-97CA-E84C3E72068B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Secuencial</t>
   </si>
@@ -49,12 +49,48 @@
   <si>
     <t>Tipo de búsqueda</t>
   </si>
+  <si>
+    <t>NOTA: ns significa nanosegundos</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>1. La búsqueda secuencial es la búsqueda ineficiente. Esto debido a su complejidad O(n).</t>
+  </si>
+  <si>
+    <t>2. La búsqueda binaria y por transformación de claves son bastante eficientes en la búsqueda de los productos.</t>
+  </si>
+  <si>
+    <t>3. Los picos en las búsquedas son debidos a que existe un tiempo extra en el que el sistema procesa la búsqueda.</t>
+  </si>
+  <si>
+    <t>4. La búsqueda por transformación de claves puede ser más eficiente que la búsqueda binaria. Esto es debido a que, en el mejor caso, la complejidad de ambas son correspondientemente O(1) y O(log n).</t>
+  </si>
+  <si>
+    <t>5. La búsqueda por transformación de claves puede ser menos eficiente que la búsqueda binaria. Esto es debido a que, en el peor caso, la complejidad de ambas son correspondientemente O(n) y O(log n).</t>
+  </si>
+  <si>
+    <t>Consideraciones</t>
+  </si>
+  <si>
+    <t>1. El funcionamiento de la búsqueda binaria es soportado por el algoritmo de ordenamiento BurstSort.</t>
+  </si>
+  <si>
+    <t>2. El funcionamiento de la búsqueda por transformación de claves es soportado por el ordenamiento de reinserción de los productos como Tabla Hash.</t>
+  </si>
+  <si>
+    <t>3. El funcionamiento de la búsqueda por transformación de claves y la tabla Hash es soportado por la operación módulo para la asignación y búsqueda de posiciones en la lista de productos.</t>
+  </si>
+  <si>
+    <t>4. El ordenamiento de reinserción como Tabla Hash usa el sondeo lineal como solución de colisiones Hash.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,16 +98,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -79,12 +155,255 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -781,6 +1100,66 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Número de productos</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> (n)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -846,6 +1225,66 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-CO"/>
+                  <a:t>Tiempo</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-CO" baseline="0"/>
+                  <a:t> de búsqueda (ns)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-CO"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1518,15 +1957,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>352425</xdr:colOff>
+      <xdr:colOff>400050</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>119062</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1851,328 +2290,719 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55E510D0-674B-49B7-8F35-198991D4BECD}">
-  <dimension ref="A1:Y4"/>
+  <dimension ref="A1:Y21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="V11" sqref="V11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7" defaultRowHeight="19.5" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.7109375" customWidth="1"/>
-    <col min="2" max="25" width="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="5" customWidth="1"/>
+    <col min="2" max="25" width="8" style="5" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="7" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="2">
         <v>1000</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="3">
         <v>1500</v>
       </c>
-      <c r="D1">
+      <c r="D1" s="3">
         <v>2000</v>
       </c>
-      <c r="E1">
+      <c r="E1" s="3">
         <v>2500</v>
       </c>
-      <c r="F1">
+      <c r="F1" s="3">
         <v>3000</v>
       </c>
-      <c r="G1">
+      <c r="G1" s="3">
         <v>3500</v>
       </c>
-      <c r="H1">
+      <c r="H1" s="3">
         <v>4000</v>
       </c>
-      <c r="I1">
+      <c r="I1" s="3">
         <v>4500</v>
       </c>
-      <c r="J1">
+      <c r="J1" s="3">
         <v>5000</v>
       </c>
-      <c r="K1">
+      <c r="K1" s="3">
         <v>5500</v>
       </c>
-      <c r="L1">
+      <c r="L1" s="3">
         <v>6000</v>
       </c>
-      <c r="M1">
+      <c r="M1" s="3">
         <v>6500</v>
       </c>
-      <c r="N1">
+      <c r="N1" s="3">
         <v>7000</v>
       </c>
-      <c r="O1">
+      <c r="O1" s="3">
         <v>7500</v>
       </c>
-      <c r="P1">
+      <c r="P1" s="3">
         <v>8000</v>
       </c>
-      <c r="Q1">
+      <c r="Q1" s="3">
         <v>8500</v>
       </c>
-      <c r="R1">
+      <c r="R1" s="3">
         <v>9000</v>
       </c>
-      <c r="S1">
+      <c r="S1" s="3">
         <v>9500</v>
       </c>
-      <c r="T1">
+      <c r="T1" s="3">
         <v>10000</v>
       </c>
-      <c r="U1">
+      <c r="U1" s="3">
         <v>11000</v>
       </c>
-      <c r="V1">
+      <c r="V1" s="3">
         <v>12000</v>
       </c>
-      <c r="W1">
+      <c r="W1" s="3">
         <v>13000</v>
       </c>
-      <c r="X1">
+      <c r="X1" s="3">
         <v>14000</v>
       </c>
-      <c r="Y1">
+      <c r="Y1" s="4">
         <v>15000</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>837700</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="8">
         <v>1190900</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="8">
         <v>1538000</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="8">
         <v>2085001</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="8">
         <v>2044200</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="8">
         <v>1952400</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="8">
         <v>1539200</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="8">
         <v>1303000</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="8">
         <v>1390800</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="8">
         <v>1075700</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="8">
         <v>1338600</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="8">
         <v>1165800</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="8">
         <v>1676800</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="8">
         <v>1659200</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="8">
         <v>1548600</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="8">
         <v>2820000</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="8">
         <v>1577500</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="8">
         <v>2624400</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="8">
         <v>2655100</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="8">
         <v>2965800</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="8">
         <v>2198900</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="8">
         <v>2231900</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="8">
         <v>2100900</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="9">
         <v>2857400</v>
       </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>427900</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="8">
         <v>268200</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="8">
         <v>510200</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="8">
         <v>450400</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="8">
         <v>539801</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="8">
         <v>329300</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="8">
         <v>420700</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="8">
         <v>338300</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="8">
         <v>348000</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="8">
         <v>264500</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="8">
         <v>489500</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="8">
         <v>491700</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="8">
         <v>286400</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="8">
         <v>661500</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="8">
         <v>329000</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="8">
         <v>381800</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="8">
         <v>313700</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="8">
         <v>425500</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="8">
         <v>423600</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="8">
         <v>219700</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="8">
         <v>357800</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="8">
         <v>402800</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="8">
         <v>300000</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="9">
         <v>344400</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    <row r="4" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="11">
         <v>373400</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="12">
         <v>343100</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="12">
         <v>246300</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="12">
         <v>471200</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="12">
         <v>317900</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="12">
         <v>279200</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="12">
         <v>145700</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="12">
         <v>275700</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="12">
         <v>394100</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="12">
         <v>228400</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="12">
         <v>199900</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="12">
         <v>204800</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="12">
         <v>254700</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="12">
         <v>256300</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="12">
         <v>441700</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="12">
         <v>229200</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="12">
         <v>358900</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="12">
         <v>245100</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="12">
         <v>354100</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="12">
         <v>250000</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="12">
         <v>413600</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="12">
         <v>217300</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="12">
         <v>374300</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="13">
         <v>288900</v>
       </c>
+    </row>
+    <row r="6" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14"/>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="J6" s="18"/>
+      <c r="K6" s="18"/>
+      <c r="L6" s="18"/>
+      <c r="M6" s="18"/>
+      <c r="N6" s="18"/>
+      <c r="O6" s="18"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="18"/>
+      <c r="U6" s="19"/>
+    </row>
+    <row r="7" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="22"/>
+      <c r="I7" s="29" t="s">
+        <v>6</v>
+      </c>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="30"/>
+      <c r="N7" s="30"/>
+      <c r="O7" s="30"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="30"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="30"/>
+      <c r="U7" s="31"/>
+    </row>
+    <row r="8" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="22"/>
+      <c r="I8" s="29" t="s">
+        <v>7</v>
+      </c>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="31"/>
+    </row>
+    <row r="9" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="21"/>
+      <c r="D9" s="21"/>
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="22"/>
+      <c r="I9" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="30"/>
+      <c r="U9" s="31"/>
+    </row>
+    <row r="10" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="22"/>
+      <c r="I10" s="32" t="s">
+        <v>9</v>
+      </c>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+      <c r="L10" s="33"/>
+      <c r="M10" s="33"/>
+      <c r="N10" s="33"/>
+      <c r="O10" s="33"/>
+      <c r="P10" s="33"/>
+      <c r="Q10" s="33"/>
+      <c r="R10" s="33"/>
+      <c r="S10" s="33"/>
+      <c r="T10" s="33"/>
+      <c r="U10" s="34"/>
+    </row>
+    <row r="11" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="22"/>
+      <c r="I11" s="35"/>
+      <c r="J11" s="36"/>
+      <c r="K11" s="36"/>
+      <c r="L11" s="36"/>
+      <c r="M11" s="36"/>
+      <c r="N11" s="36"/>
+      <c r="O11" s="36"/>
+      <c r="P11" s="36"/>
+      <c r="Q11" s="36"/>
+      <c r="R11" s="36"/>
+      <c r="S11" s="36"/>
+      <c r="T11" s="36"/>
+      <c r="U11" s="37"/>
+    </row>
+    <row r="12" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="20"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+      <c r="I12" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+      <c r="L12" s="33"/>
+      <c r="M12" s="33"/>
+      <c r="N12" s="33"/>
+      <c r="O12" s="33"/>
+      <c r="P12" s="33"/>
+      <c r="Q12" s="33"/>
+      <c r="R12" s="33"/>
+      <c r="S12" s="33"/>
+      <c r="T12" s="33"/>
+      <c r="U12" s="34"/>
+    </row>
+    <row r="13" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="20"/>
+      <c r="B13" s="21"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="22"/>
+      <c r="I13" s="35"/>
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="O13" s="36"/>
+      <c r="P13" s="36"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="37"/>
+    </row>
+    <row r="14" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="22"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="21"/>
+      <c r="O14" s="21"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="21"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="21"/>
+    </row>
+    <row r="15" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="20"/>
+      <c r="B15" s="21"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="22"/>
+      <c r="I15" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="J15" s="18"/>
+      <c r="K15" s="18"/>
+      <c r="L15" s="18"/>
+      <c r="M15" s="18"/>
+      <c r="N15" s="18"/>
+      <c r="O15" s="18"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="18"/>
+      <c r="U15" s="19"/>
+    </row>
+    <row r="16" spans="1:25" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="20"/>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="22"/>
+      <c r="I16" s="32" t="s">
+        <v>12</v>
+      </c>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
+      <c r="M16" s="33"/>
+      <c r="N16" s="33"/>
+      <c r="O16" s="33"/>
+      <c r="P16" s="33"/>
+      <c r="Q16" s="33"/>
+      <c r="R16" s="33"/>
+      <c r="S16" s="33"/>
+      <c r="T16" s="33"/>
+      <c r="U16" s="34"/>
+    </row>
+    <row r="17" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="20"/>
+      <c r="B17" s="21"/>
+      <c r="C17" s="21"/>
+      <c r="D17" s="21"/>
+      <c r="E17" s="21"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="22"/>
+      <c r="I17" s="32" t="s">
+        <v>13</v>
+      </c>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+      <c r="L17" s="33"/>
+      <c r="M17" s="33"/>
+      <c r="N17" s="33"/>
+      <c r="O17" s="33"/>
+      <c r="P17" s="33"/>
+      <c r="Q17" s="33"/>
+      <c r="R17" s="33"/>
+      <c r="S17" s="33"/>
+      <c r="T17" s="33"/>
+      <c r="U17" s="34"/>
+    </row>
+    <row r="18" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="20"/>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="22"/>
+      <c r="I18" s="35"/>
+      <c r="J18" s="36"/>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="36"/>
+      <c r="S18" s="36"/>
+      <c r="T18" s="36"/>
+      <c r="U18" s="37"/>
+    </row>
+    <row r="19" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="20"/>
+      <c r="B19" s="21"/>
+      <c r="C19" s="21"/>
+      <c r="D19" s="21"/>
+      <c r="E19" s="21"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="22"/>
+      <c r="I19" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="33"/>
+      <c r="N19" s="33"/>
+      <c r="O19" s="33"/>
+      <c r="P19" s="33"/>
+      <c r="Q19" s="33"/>
+      <c r="R19" s="33"/>
+      <c r="S19" s="33"/>
+      <c r="T19" s="33"/>
+      <c r="U19" s="34"/>
+    </row>
+    <row r="20" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="23"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25"/>
+      <c r="I20" s="35"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="36"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="36"/>
+      <c r="R20" s="36"/>
+      <c r="S20" s="36"/>
+      <c r="T20" s="36"/>
+      <c r="U20" s="37"/>
+    </row>
+    <row r="21" spans="1:21" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="28"/>
+      <c r="I21" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
+      <c r="L21" s="30"/>
+      <c r="M21" s="30"/>
+      <c r="N21" s="30"/>
+      <c r="O21" s="30"/>
+      <c r="P21" s="30"/>
+      <c r="Q21" s="30"/>
+      <c r="R21" s="30"/>
+      <c r="S21" s="30"/>
+      <c r="T21" s="30"/>
+      <c r="U21" s="31"/>
     </row>
   </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="I19:U20"/>
+    <mergeCell ref="I21:U21"/>
+    <mergeCell ref="I10:U11"/>
+    <mergeCell ref="I12:U13"/>
+    <mergeCell ref="I15:U15"/>
+    <mergeCell ref="I16:U16"/>
+    <mergeCell ref="I17:U18"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="I6:U6"/>
+    <mergeCell ref="I7:U7"/>
+    <mergeCell ref="I8:U8"/>
+    <mergeCell ref="I9:U9"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>